--- a/page.xlsx
+++ b/page.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>1通用板块</t>
   </si>
@@ -46,13 +46,13 @@
     <t>102注册界面</t>
   </si>
   <si>
-    <t>103用户登录界面</t>
+    <t>103学生登录界面</t>
   </si>
   <si>
     <t>104管理员登录界面</t>
   </si>
   <si>
-    <t>105用户注册界面</t>
+    <t>105学生注册界面</t>
   </si>
   <si>
     <t>106管理员注册界面</t>
@@ -61,22 +61,172 @@
     <t>1密码找回</t>
   </si>
   <si>
-    <t>110用户密码找回</t>
+    <t>110学生密码找回</t>
   </si>
   <si>
     <t>111管理员密码找回</t>
   </si>
   <si>
-    <t>2注册信息填写</t>
-  </si>
-  <si>
-    <t>...</t>
+    <t>2信息填写</t>
+  </si>
+  <si>
+    <t>120电动自行车信息登记</t>
+  </si>
+  <si>
+    <t>信息登记（参考企微）完成后点击上传，管理员审核通过后提醒可以前往保卫处上牌。</t>
+  </si>
+  <si>
+    <t>121管理员信息登记</t>
+  </si>
+  <si>
+    <t>姓名，电话号码……</t>
+  </si>
+  <si>
+    <t>9辅助页面</t>
+  </si>
+  <si>
+    <t>190电动自行车登记注册承诺书</t>
+  </si>
+  <si>
+    <t>191注册说明</t>
   </si>
   <si>
     <t>2用户板块</t>
   </si>
   <si>
+    <t>0功能</t>
+  </si>
+  <si>
+    <t>200学生子界面</t>
+  </si>
+  <si>
+    <t>登记信息审核通过后再次登录系统直接跳转到此页面（四大功能键）</t>
+  </si>
+  <si>
+    <t>1年审</t>
+  </si>
+  <si>
+    <t>210年审界面</t>
+  </si>
+  <si>
+    <t>输入车牌号，显示年审到期时间。提示“需年审”或显示“有效”。有上传年审报告按钮。</t>
+  </si>
+  <si>
+    <t>211年审报告上传界面</t>
+  </si>
+  <si>
+    <t>上传图片，点击提交</t>
+  </si>
+  <si>
+    <t>2变更/报废</t>
+  </si>
+  <si>
+    <t>220选择界面</t>
+  </si>
+  <si>
+    <t>输入车牌号，选择“变更”或“报废”</t>
+  </si>
+  <si>
+    <t>221变更界面</t>
+  </si>
+  <si>
+    <t>变更：修改车辆信息</t>
+  </si>
+  <si>
+    <t>222报废界面</t>
+  </si>
+  <si>
+    <t>报废：填写报废原因并标记状态</t>
+  </si>
+  <si>
+    <t>3出入记录</t>
+  </si>
+  <si>
+    <t>230出入记录界面</t>
+  </si>
+  <si>
+    <t>输入车牌号，记录进入/离开校园的时间戳（自动获取系统时间）。自判断年审情况，系统存档。</t>
+  </si>
+  <si>
+    <t>4停放</t>
+  </si>
+  <si>
+    <t>240选择界面</t>
+  </si>
+  <si>
+    <t>输入车牌号，选择“标记停车”或“查找车辆”</t>
+  </si>
+  <si>
+    <t>241停车界面</t>
+  </si>
+  <si>
+    <t>标记停车：自动获取当前位置</t>
+  </si>
+  <si>
+    <t>242找车界面</t>
+  </si>
+  <si>
+    <t>查找车辆：显示停放位置</t>
+  </si>
+  <si>
     <t>3管理员板块</t>
+  </si>
+  <si>
+    <t>300管理员子界面</t>
+  </si>
+  <si>
+    <t>信息登记后跳转到此界面（五大功能键）</t>
+  </si>
+  <si>
+    <t>310查看年审界面</t>
+  </si>
+  <si>
+    <t>显示未通过年审的车辆，选择提醒/报废。有消息提示查看年审报告。</t>
+  </si>
+  <si>
+    <t>311审核年审报告界面</t>
+  </si>
+  <si>
+    <t>查看提交的年审报告，选择通过/不通过</t>
+  </si>
+  <si>
+    <t>320消息提示界面</t>
+  </si>
+  <si>
+    <t>提示学生提交材料，点击查看（自动判断跳转到变更/报废界面）</t>
+  </si>
+  <si>
+    <t>321审核变更界面</t>
+  </si>
+  <si>
+    <t>查看学生提交的变更申请，点击已审核</t>
+  </si>
+  <si>
+    <t>322审核报废界面</t>
+  </si>
+  <si>
+    <t>查看学生提交的报废情况，点击已审核</t>
+  </si>
+  <si>
+    <t>330出入记录查看界面</t>
+  </si>
+  <si>
+    <t>显示年审未通过车辆出入校园，点击对车主发送提醒警告的按钮</t>
+  </si>
+  <si>
+    <t>340停放管理界面</t>
+  </si>
+  <si>
+    <t>查看校内电动车停放情况，如有违规点击对车主发送提醒警告的按钮</t>
+  </si>
+  <si>
+    <t>5审核登记</t>
+  </si>
+  <si>
+    <t>350审核电动车登记界面</t>
+  </si>
+  <si>
+    <t>查看学生提交的电动车登记信息，选择通过/不通过</t>
   </si>
 </sst>
 </file>
@@ -436,11 +586,20 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -568,7 +727,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,34 +739,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,7 +851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,6 +859,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1013,20 +1181,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="27.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="50.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,6 +1204,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1"/>
@@ -1102,7 +1280,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>12</v>
@@ -1110,123 +1288,393 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="1"/>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" s="1"/>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1"/>
+    <row r="33" spans="1:13">
+      <c r="A33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:4">
       <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
+      <c r="B36" s="1"/>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" t="s">
-        <v>13</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>57</v>
+      </c>
+      <c r="D40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A36"/>
+  <mergeCells count="57">
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="D5:M5"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="D12:M12"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D41:M41"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D43:M43"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="C45:M45"/>
+    <mergeCell ref="D46:M46"/>
+    <mergeCell ref="A1:A16"/>
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="A33:A46"/>
     <mergeCell ref="B1:B7"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B38:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
